--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1068324.99471744</v>
+        <v>1088456.641654803</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7533543.048809995</v>
+        <v>7533543.048809996</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.1101224634645</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>58.82659439808642</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>50.63399959316921</v>
       </c>
       <c r="C3" t="n">
-        <v>68.48539041831155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>180.1159031720507</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>132.6803123645533</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>71.18534776628209</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.23925438949311</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>129.0632770397859</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>96.85493861652184</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.46678622243968</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>105.4289408551651</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10.27077547947472</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>129.0632770397856</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.00880902957793</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>174.1736765502209</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356406</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>129.0632770397856</v>
       </c>
       <c r="F17" t="n">
-        <v>62.98985437657969</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>405.7415719969023</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.85956499965891</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81.12752273267785</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.58838388982759</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>208.6031950382871</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>183.0526180540066</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>70.88328123896568</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2223,10 +2223,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>68.12899734139545</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>257.3613733928692</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>50.64757157172897</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,19 +2403,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.77774180753767</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>8.346463858805084</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>98.67691987936507</v>
+        <v>163.463517370063</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>123.8386863607092</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>106.914749732671</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.29526778092605</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>114.00346146213</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>14.43165107305528</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>8.346463858805084</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>11.60791818471257</v>
       </c>
       <c r="I32" t="n">
-        <v>123.7983087353871</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>94.26760726935261</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="X34" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>152.2114433965081</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.09712289029907652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>42.28735054302981</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3405,10 +3405,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>21.95667389907128</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117.5067549496406</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>164.8521922504818</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,22 +3585,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.59131375935476</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>181.7638782208678</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.06064116356384</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>321.4272969983944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,22 +3785,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>74.38236437343521</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>88.00880902957773</v>
+        <v>26.69801789530841</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3876,10 +3876,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.20113705803945</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>74.99539127537022</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.0141491195439</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4113,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>107.9937925002405</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>174.1736765502209</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>17.00671206275834</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>742.8341567219593</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y2" t="n">
-        <v>742.8341567219593</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.5120669445405</v>
+        <v>739.4943568267907</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F3" t="n">
         <v>110.334904905842</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4443,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>555.4877027295624</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>555.4877027295624</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X3" t="n">
-        <v>555.4877027295624</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y3" t="n">
-        <v>347.7274039646085</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="U6" t="n">
-        <v>830.0366379706834</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="V6" t="n">
-        <v>594.8845297389407</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W6" t="n">
-        <v>594.8845297389407</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X6" t="n">
-        <v>387.0330295334078</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.2727307684539</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>528.5815077689649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>414.5729737357042</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C9" t="n">
-        <v>240.1199444545772</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D9" t="n">
-        <v>91.18553479332596</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E9" t="n">
-        <v>91.18553479332596</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>273.4406610937102</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>582.7883107557723</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y9" t="n">
-        <v>582.7883107557723</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975218</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975218</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506521</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W11" t="n">
-        <v>405.9250840208321</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X11" t="n">
-        <v>32.45932575975218</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975218</v>
+        <v>1508.970645214178</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7947023326189</v>
+        <v>851.2477122461045</v>
       </c>
       <c r="C12" t="n">
-        <v>111.7947023326189</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
         <v>61.20822116384403</v>
@@ -5130,7 +5130,7 @@
         <v>758.3581127497702</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5142,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570039</v>
+        <v>1435.074848236659</v>
       </c>
       <c r="W12" t="n">
-        <v>536.9689116288023</v>
+        <v>1435.074848236659</v>
       </c>
       <c r="X12" t="n">
-        <v>329.1174114232695</v>
+        <v>1227.223348031126</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.3571126583155</v>
+        <v>1019.463049266172</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>191.8257232724345</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>191.8257232724345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>42.83384644609029</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975219</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521505</v>
@@ -5285,7 +5285,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V14" t="n">
-        <v>503.7583553506526</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W14" t="n">
-        <v>150.9897000805384</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975219</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975219</v>
+        <v>1508.970645214177</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.45932575975219</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V15" t="n">
-        <v>791.2062683570041</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W15" t="n">
-        <v>536.9689116288025</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X15" t="n">
-        <v>329.1174114232697</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.3571126583158</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5461,25 @@
         <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="C17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="E17" t="n">
-        <v>1032.389842527199</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F17" t="n">
         <v>968.7637269953004</v>
@@ -5519,10 +5519,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5543,22 +5543,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y17" t="n">
-        <v>1032.389842527199</v>
+        <v>1508.970645214177</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>206.9123550408792</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>155.742343347904</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>155.742343347904</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>45.44878535536725</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
@@ -5595,22 +5595,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5619,25 +5619,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.116286433832</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>1111.91361897131</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>876.7615107395675</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W18" t="n">
-        <v>622.5241540113659</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X18" t="n">
-        <v>414.6726538058331</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y18" t="n">
-        <v>206.9123550408792</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.17486504240631</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975218</v>
@@ -5695,28 +5695,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S19" t="n">
-        <v>261.5666648398646</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.1153555684087</v>
+        <v>1038.797848090511</v>
       </c>
       <c r="C20" t="n">
-        <v>222.1153555684087</v>
+        <v>1038.797848090511</v>
       </c>
       <c r="D20" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5777,25 +5777,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U20" t="n">
-        <v>1146.385485300631</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V20" t="n">
-        <v>961.4838509026447</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W20" t="n">
-        <v>608.7151956325305</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X20" t="n">
-        <v>608.7151956325305</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y20" t="n">
-        <v>608.7151956325305</v>
+        <v>1425.397688154633</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="C21" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5853,28 +5853,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1551.367014008856</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1383.864778967022</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1383.864778967022</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1155.6621115045</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V21" t="n">
-        <v>920.5100032727576</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W21" t="n">
-        <v>666.272646544556</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X21" t="n">
-        <v>666.272646544556</v>
+        <v>386.7541824978211</v>
       </c>
       <c r="Y21" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1441.31782315737</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.4203089848726</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C23" t="n">
-        <v>292.4203089848726</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -6017,22 +6017,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>1069.159481024806</v>
+        <v>1571.807124783842</v>
       </c>
       <c r="W23" t="n">
-        <v>1069.159481024806</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="X23" t="n">
-        <v>1069.159481024806</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="Y23" t="n">
-        <v>679.0201490489944</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>355.8467647021305</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6069,49 +6069,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278473</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1610.059478081005</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1442.557243039171</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1241.654234144665</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1013.451566682143</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V24" t="n">
-        <v>778.2994584504002</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W24" t="n">
-        <v>524.0621017221986</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X24" t="n">
-        <v>524.0621017221986</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y24" t="n">
-        <v>524.0621017221986</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="26">
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1523.292631543806</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="U26" t="n">
-        <v>1523.292631543806</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="V26" t="n">
-        <v>1523.292631543806</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="W26" t="n">
-        <v>1523.292631543806</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="X26" t="n">
-        <v>1149.826873282726</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="Y26" t="n">
-        <v>759.6875413069145</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>424.6601048545757</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="D27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="E27" t="n">
-        <v>250.2070755734487</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="F27" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6306,16 +6306,16 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>147.3709770270845</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O27" t="n">
         <v>1271.486777082839</v>
@@ -6327,28 +6327,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1497.876705805075</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>1262.724597573332</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>1008.48724084513</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>800.6357406395975</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>592.8754418746437</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>296.5701361642185</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>256.8779464865154</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>107.8860696601711</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y28" t="n">
-        <v>296.5701361642185</v>
+        <v>1402.173708844079</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>902.3651068763172</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="C29" t="n">
-        <v>533.4025899359056</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="D29" t="n">
-        <v>533.4025899359056</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="E29" t="n">
-        <v>147.6143373376613</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F29" t="n">
-        <v>147.6143373376613</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G29" t="n">
-        <v>147.6143373376613</v>
+        <v>558.9237552812576</v>
       </c>
       <c r="H29" t="n">
-        <v>147.6143373376613</v>
+        <v>222.1153555684085</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975204</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1255.133762146431</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V29" t="n">
-        <v>1255.133762146431</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="W29" t="n">
-        <v>902.3651068763172</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="X29" t="n">
-        <v>902.3651068763172</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="Y29" t="n">
-        <v>902.3651068763172</v>
+        <v>1354.551979593545</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6555,7 +6555,7 @@
         <v>1160.042269026703</v>
       </c>
       <c r="O30" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
         <v>1513.730526286846</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U30" t="n">
-        <v>1374.066492846507</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.066492846507</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W30" t="n">
-        <v>1374.066492846507</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X30" t="n">
-        <v>1365.635721271956</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.875422507002</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="G31" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1461.474148589836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1312.482271763492</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.402045381201</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C32" t="n">
-        <v>1311.402045381201</v>
+        <v>863.8644390713857</v>
       </c>
       <c r="D32" t="n">
-        <v>953.1363467744504</v>
+        <v>863.8644390713857</v>
       </c>
       <c r="E32" t="n">
-        <v>567.3480941762061</v>
+        <v>863.8644390713857</v>
       </c>
       <c r="F32" t="n">
-        <v>157.5081224621634</v>
+        <v>454.024467357343</v>
       </c>
       <c r="G32" t="n">
-        <v>157.5081224621634</v>
+        <v>44.18449564330024</v>
       </c>
       <c r="H32" t="n">
-        <v>157.5081224621634</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6722,28 +6722,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1311.402045381201</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>661.618777680701</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>487.165748399574</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
         <v>32.45932575975218</v>
@@ -6780,49 +6780,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313474</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1446.348922565762</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T33" t="n">
-        <v>1245.445913671256</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>1245.445913671256</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>1245.445913671256</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>1245.445913671256</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>1037.594413465723</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>829.8341147007691</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W34" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>759.6875413069145</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="C35" t="n">
-        <v>390.7250243665027</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975219</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>186.2082584834978</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>186.2082584834978</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6962,25 +6962,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U35" t="n">
-        <v>1146.385485300631</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V35" t="n">
-        <v>1146.385485300631</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W35" t="n">
-        <v>1146.385485300631</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="X35" t="n">
-        <v>1146.385485300631</v>
+        <v>596.0482301975405</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.287381371036</v>
+        <v>596.0482301975405</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>549.7496870371103</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>549.7496870371103</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>549.7496870371103</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
         <v>507.0351915391004</v>
@@ -7011,7 +7011,7 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
         <v>61.20822116384403</v>
@@ -7023,10 +7023,10 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
         <v>1380.722538783602</v>
@@ -7050,16 +7050,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755867</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W36" t="n">
-        <v>1133.576823027665</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="X36" t="n">
-        <v>925.7253228221323</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y36" t="n">
-        <v>717.9650240571784</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1461.474148589836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1312.482271763492</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>846.2271159476757</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="C38" t="n">
-        <v>846.2271159476757</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D38" t="n">
-        <v>487.9614173409252</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E38" t="n">
-        <v>487.9614173409252</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F38" t="n">
-        <v>487.9614173409252</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G38" t="n">
-        <v>487.9614173409252</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>151.153017628076</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>922.1407598523911</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.966287987609</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.826956011797</v>
+        <v>591.0778725088204</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>366.1498100463347</v>
+        <v>957.7415918977861</v>
       </c>
       <c r="C39" t="n">
-        <v>191.6967807652077</v>
+        <v>783.2885626166591</v>
       </c>
       <c r="D39" t="n">
-        <v>191.6967807652077</v>
+        <v>634.3541529554078</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>475.1166979499523</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>328.5821399768373</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>190.1697667360075</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
@@ -7254,49 +7254,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>389.614726231092</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>789.032862835355</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
-        <v>1190.717019112288</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U39" t="n">
-        <v>1439.366410996834</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V39" t="n">
-        <v>1204.214302765091</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W39" t="n">
-        <v>949.9769460368893</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X39" t="n">
-        <v>742.1254458313565</v>
+        <v>1333.717227682808</v>
       </c>
       <c r="Y39" t="n">
-        <v>534.3651470664026</v>
+        <v>1125.956928917854</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>883.5977926533733</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C41" t="n">
-        <v>883.5977926533733</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D41" t="n">
-        <v>883.5977926533733</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E41" t="n">
-        <v>883.5977926533733</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>883.5977926533733</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="X41" t="n">
-        <v>1270.197632717495</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="Y41" t="n">
-        <v>1270.197632717495</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>121.3571126583155</v>
+        <v>529.3490175189913</v>
       </c>
       <c r="C42" t="n">
-        <v>121.3571126583155</v>
+        <v>354.8959882378643</v>
       </c>
       <c r="D42" t="n">
-        <v>121.3571126583155</v>
+        <v>205.9615785766131</v>
       </c>
       <c r="E42" t="n">
-        <v>121.3571126583155</v>
+        <v>205.9615785766131</v>
       </c>
       <c r="F42" t="n">
-        <v>121.3571126583155</v>
+        <v>59.42702060349805</v>
       </c>
       <c r="G42" t="n">
-        <v>121.3571126583155</v>
+        <v>59.42702060349805</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7488,22 +7488,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7512,28 +7512,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570039</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288023</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232695</v>
+        <v>737.1093162839453</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.3571126583155</v>
+        <v>529.3490175189913</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975218</v>
+        <v>214.3566541050397</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975218</v>
+        <v>214.3566541050397</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975218</v>
+        <v>52.86451470726678</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975218</v>
@@ -7609,10 +7609,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>133.2570507049327</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C44" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D44" t="n">
-        <v>1264.700589380859</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E44" t="n">
-        <v>1188.947668900687</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F44" t="n">
-        <v>779.107697186644</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G44" t="n">
         <v>369.2677254726013</v>
@@ -7646,16 +7646,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1306.936151154032</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1053.099268086286</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>722.0363807427154</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y44" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>594.4195962804527</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>419.9665669993257</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
-        <v>271.0321573380744</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>111.7947023326189</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7728,22 +7728,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270845</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7761,16 +7761,16 @@
         <v>1541.568727888341</v>
       </c>
       <c r="V45" t="n">
-        <v>1432.484088999209</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W45" t="n">
-        <v>1178.246732271007</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X45" t="n">
-        <v>970.3952320654746</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y45" t="n">
-        <v>762.6349333005207</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C46" t="n">
-        <v>344.0681045698609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D46" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7834,22 +7834,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479949</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>213.8448350321619</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N18" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>362.3381572675152</v>
       </c>
       <c r="N21" t="n">
-        <v>380.7598033349565</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>267.4734388209744</v>
+        <v>224.2923308271896</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>173.9657132208096</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>390.1250211658772</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10203,10 +10203,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611509</v>
       </c>
       <c r="P30" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,16 +10428,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N36" t="n">
-        <v>174.1879045256803</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
-        <v>224.2923308271896</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026376</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018625</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928323</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878806</v>
+        <v>89.94082829865957</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>252.8670930324759</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>252.3860301008912</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,25 +23334,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.0663974274277</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>127.3716462942602</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>64.40170098194004</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>252.8670930324761</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>252.3860301008907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.52437462028941</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>31.59930865325657</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>252.8670930324761</v>
       </c>
       <c r="F17" t="n">
-        <v>343.8861913651318</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
         <v>8.97193213363164</v>
@@ -23783,10 +23783,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>65.68245780747912</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,16 +23859,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>84.69968995873791</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141476</v>
+        <v>62.08409257158718</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>146.0798465823959</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>144.6996404161283</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.700303259309834</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>137.643987862082</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>21.57939819579937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>1.834535155252155</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>97.32166822781375</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24257,16 +24257,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>277.1046868984059</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24291,19 +24291,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>67.80584269073783</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>197.4265213446724</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24421,10 +24421,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>121.8395605436747</v>
+        <v>57.05296305297676</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,16 +24531,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>137.643987862082</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>102.0819544271874</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>72.91723044926633</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,13 +24616,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5819502228692</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.75600804843988</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24737,10 +24737,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>313.3206073970796</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>85.40566091718952</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>197.4265213446724</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990355</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>56.552249438525</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>321.832397531008</v>
       </c>
       <c r="I32" t="n">
-        <v>63.96116077518282</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>71.55960542206314</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7332506408623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>35.54802611406177</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1408157657545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25233,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>115.3577299123711</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>183.8163113044062</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25327,13 +25327,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>56.552249438525</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25406,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>70.25271456092929</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>86.44632198658655</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,22 +25473,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>31.5993086532566</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25524,13 +25524,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>44.15676256702881</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>123.3497577082895</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>180.4339941236785</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>93.28620713213957</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>253.3698940966997</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,22 +25707,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>21.18181338303363</v>
+        <v>82.49260451730295</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>127.3008210000413</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141476</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25868,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>306.9349787968915</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>20.50233130349594</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26001,13 +26001,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>124.8067946491848</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>31.59930865325657</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>150.2401090358695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>47.75082525111453</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26074,7 +26074,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>536204.2611585137</v>
+        <v>536204.261158514</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>536204.2611585136</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>536204.2611585138</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>536204.2611585133</v>
+        <v>536204.2611585135</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536204.2611585137</v>
+        <v>536204.2611585136</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>536204.2611585138</v>
+        <v>536204.2611585133</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536204.2611585138</v>
+        <v>536204.2611585136</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>536204.2611585137</v>
+        <v>536204.2611585136</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>536204.2611585134</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>536204.2611585138</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242975</v>
@@ -26332,19 +26332,19 @@
         <v>245673.2316242976</v>
       </c>
       <c r="I2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="J2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="K2" t="n">
         <v>245673.2316242976</v>
       </c>
-      <c r="J2" t="n">
-        <v>245673.2316242974</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>245673.2316242976</v>
+      </c>
+      <c r="M2" t="n">
         <v>245673.2316242975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245673.2316242974</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245673.2316242976</v>
       </c>
       <c r="N2" t="n">
         <v>245673.2316242975</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="J4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="N4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26500,7 +26500,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28080.45936717309</v>
+        <v>30452.94295793644</v>
       </c>
       <c r="C6" t="n">
-        <v>108849.8908987207</v>
+        <v>111222.3744894842</v>
       </c>
       <c r="D6" t="n">
-        <v>108849.8908987209</v>
+        <v>111222.3744894842</v>
       </c>
       <c r="E6" t="n">
-        <v>13963.86693459273</v>
+        <v>16386.39682555656</v>
       </c>
       <c r="F6" t="n">
-        <v>180904.0370598395</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="G6" t="n">
-        <v>180904.0370598396</v>
+        <v>183326.5669508034</v>
       </c>
       <c r="H6" t="n">
-        <v>180904.0370598396</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="I6" t="n">
-        <v>180904.0370598396</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="J6" t="n">
-        <v>117844.0944607332</v>
+        <v>120266.624351697</v>
       </c>
       <c r="K6" t="n">
-        <v>180904.0370598395</v>
+        <v>183326.5669508034</v>
       </c>
       <c r="L6" t="n">
-        <v>180904.0370598394</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="M6" t="n">
-        <v>139853.3391973916</v>
+        <v>142275.8690883554</v>
       </c>
       <c r="N6" t="n">
-        <v>180904.0370598395</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="O6" t="n">
-        <v>180904.0370598395</v>
+        <v>183326.5669508033</v>
       </c>
       <c r="P6" t="n">
-        <v>180904.0370598396</v>
+        <v>183326.5669508033</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27379,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.8202476087973</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>310.9045062803826</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>115.8991840566981</v>
       </c>
       <c r="C3" t="n">
-        <v>104.2231085700042</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27515,7 +27515,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,7 +27616,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>185.1569885989568</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>4.091421688202573</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,19 +27749,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>93.26106971642153</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>159.1343663308174</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>73.88386462710179</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>88.10426277371752</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32643,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32652,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144175</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
@@ -35732,7 +35732,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>151.5924345187912</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35744,7 +35744,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N18" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35981,7 +35981,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>300.0857567541445</v>
       </c>
       <c r="N21" t="n">
-        <v>331.4139538013791</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
-        <v>197.3722399636397</v>
+        <v>154.1911319698549</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
@@ -36452,10 +36452,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>87.03308673054588</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>340.7791716322998</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36923,10 +36923,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P30" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37166,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N36" t="n">
-        <v>124.8420549921029</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37622,25 +37622,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>154.1911319698549</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682852</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38023,7 +38023,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094069</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38096,10 +38096,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054588</v>
+        <v>19.83962944132484</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38114,7 +38114,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1088456.641654803</v>
+        <v>1105101.760958492</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7533543.048809996</v>
+        <v>7533543.048809995</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>58.82659439808642</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>55.54022196058087</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.63399959316921</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>48.75124789143251</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>130.6264574228304</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.06641246444056</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
+        <v>175.0426595591497</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>49.23925438949311</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>39.78922726048149</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>129.0632770397859</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>125.1103659546717</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.4562226808344</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -1497,25 +1499,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>105.4289408551651</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.27077547947472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>129.0632770397856</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>47.7080312712645</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1736,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.1736765502209</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.29526778092605</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>129.0632770397856</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>12.85956499965891</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>25.37527508885681</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>25.11727123431399</v>
       </c>
       <c r="J19" t="n">
-        <v>12.58838388982759</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>208.6031950382871</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>70.62611983656772</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>68.12899734139545</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>33.58605544018938</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>24.01066093403965</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>194.5053979708237</v>
       </c>
       <c r="V23" t="n">
-        <v>50.64757157172897</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>129.2577073797385</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>8.346463858805084</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>163.463517370063</v>
+        <v>4.421235284897284</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.425224531301852</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68.03870791522236</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>139.7420646587692</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>14.43165107305528</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.12752273267782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>127.3343733834984</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.295267780926</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>55.26756720238555</v>
       </c>
       <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>11.60791818471257</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>25.37527508885681</v>
       </c>
     </row>
     <row r="34">
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.157260519343144</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.2114433965081</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -3323,10 +3325,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>60.8444672980886</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>160.3046305642976</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>21.95667389907128</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>164.8521922504818</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>138.4718018346867</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,10 +3599,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>77.59131375935476</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>3.916333915343345</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -3794,10 +3796,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>56.60619488393961</v>
       </c>
       <c r="V41" t="n">
-        <v>74.38236437343521</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>26.69801789530844</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.69801789530841</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.637108967925702</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.20113705803945</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.0141491195439</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>158.4267777054075</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4071,7 +4073,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>53.9249806613496</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>174.1736765502209</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4369,13 @@
         <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X2" t="n">
-        <v>753.253405673024</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>269.6754205035162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4943568267907</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C3" t="n">
-        <v>565.0413275456638</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="D3" t="n">
-        <v>416.1069178844125</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>790.6398109613051</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>242.2808214945596</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>867.0203752435245</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>867.0203752435245</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>867.0203752435245</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>638.7967569799137</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>638.7967569799137</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>395.3479803358136</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4787,7 +4789,7 @@
         <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>419.9752190668252</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>419.9752190668252</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>419.9752190668252</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>419.9752190668252</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>273.4406610937102</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>548.2620776731201</v>
       </c>
       <c r="W9" t="n">
-        <v>627.7355178317791</v>
+        <v>548.2620776731201</v>
       </c>
       <c r="X9" t="n">
-        <v>627.7355178317791</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="Y9" t="n">
-        <v>419.9752190668252</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="C11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="D11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953007</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="G11" t="n">
         <v>558.9237552812579</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1508.970645214178</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V11" t="n">
-        <v>1508.970645214178</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.970645214178</v>
+        <v>685.2978623061788</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>851.2477122461045</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="C12" t="n">
-        <v>676.7946829649775</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>527.8602733037262</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>368.6228182982707</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
         <v>222.0882603251556</v>
@@ -5121,13 +5123,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N12" t="n">
         <v>1057.709031609044</v>
@@ -5145,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V12" t="n">
-        <v>1435.074848236659</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W12" t="n">
-        <v>1435.074848236659</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X12" t="n">
-        <v>1227.223348031126</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y12" t="n">
-        <v>1019.463049266172</v>
+        <v>944.9608164894784</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>42.83384644609029</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953004</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812577</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214177</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V14" t="n">
-        <v>1508.970645214177</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y14" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>535.3556789766088</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>386.4212693153576</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>227.1838143099021</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>80.64925633678703</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>80.64925633678703</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V15" t="n">
-        <v>1541.568727888341</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W15" t="n">
-        <v>1541.568727888341</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>709.8087082577358</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="D17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.603698709343</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953004</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5519,10 +5521,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5540,25 +5542,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1508.970645214177</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1508.970645214177</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y17" t="n">
-        <v>1508.970645214177</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>784.9017952688528</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C18" t="n">
-        <v>610.4487659877258</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D18" t="n">
-        <v>461.5143563264745</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E18" t="n">
-        <v>302.276901321019</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F18" t="n">
-        <v>155.742343347904</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G18" t="n">
-        <v>155.742343347904</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>45.44878535536725</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M18" t="n">
         <v>546.7891136313474</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>1368.728931259408</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X18" t="n">
-        <v>1160.877431053875</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y18" t="n">
-        <v>953.1171322889209</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="D19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="E19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="F19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="G19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="H19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="I19" t="n">
-        <v>45.17486504240631</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J19" t="n">
         <v>32.45932575975218</v>
@@ -5695,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.1667418687505</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1038.797848090511</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C20" t="n">
-        <v>1038.797848090511</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5777,25 +5779,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1425.397688154633</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X20" t="n">
-        <v>1425.397688154633</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y20" t="n">
-        <v>1425.397688154633</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.9938837328672</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="C21" t="n">
-        <v>178.9938837328672</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D21" t="n">
-        <v>178.9938837328672</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9938837328672</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
         <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5859,22 +5861,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577354</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W21" t="n">
-        <v>455.5713515295337</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="X21" t="n">
-        <v>386.7541824978211</v>
+        <v>938.0123251784523</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.9938837328672</v>
+        <v>904.0870166530085</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="C22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="D22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="E22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="H22" t="n">
-        <v>179.5981367727104</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="X22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V23" t="n">
-        <v>1571.807124783842</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W23" t="n">
-        <v>1219.038469513728</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X23" t="n">
-        <v>1219.038469513728</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y23" t="n">
-        <v>828.8991375379167</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.6600854869342</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C24" t="n">
-        <v>815.2070562058072</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6069,49 +6071,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L24" t="n">
-        <v>389.614726231092</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>789.032862835355</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112288</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286846</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1324.90071215816</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.066492846507</v>
+        <v>1096.698044695639</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.066492846507</v>
+        <v>861.5459364638959</v>
       </c>
       <c r="W24" t="n">
-        <v>1374.066492846507</v>
+        <v>607.3085797356944</v>
       </c>
       <c r="X24" t="n">
-        <v>1365.635721271956</v>
+        <v>399.4570795301616</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.875422507002</v>
+        <v>191.6967807652077</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144411</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144411</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>1368.281799781722</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.6875413069145</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6224,16 +6226,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6254,22 +6256,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1146.287381371036</v>
+        <v>1306.936151154032</v>
       </c>
       <c r="U26" t="n">
-        <v>1146.287381371036</v>
+        <v>1053.099268086286</v>
       </c>
       <c r="V26" t="n">
-        <v>1146.287381371036</v>
+        <v>722.0363807427154</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.287381371036</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="X26" t="n">
-        <v>1146.287381371036</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.287381371036</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.95955255904698</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="C27" t="n">
-        <v>39.95955255904698</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="D27" t="n">
-        <v>39.95955255904698</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="E27" t="n">
-        <v>39.95955255904698</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>101.1852933508859</v>
       </c>
       <c r="G27" t="n">
         <v>32.45932575975218</v>
@@ -6315,13 +6317,13 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6348,7 +6350,7 @@
         <v>247.7198513240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.95955255904698</v>
+        <v>247.7198513240009</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y28" t="n">
-        <v>1402.173708844079</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1354.551979593545</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="C29" t="n">
-        <v>1354.551979593545</v>
+        <v>363.2689562338321</v>
       </c>
       <c r="D29" t="n">
-        <v>1354.551979593545</v>
+        <v>363.2689562338321</v>
       </c>
       <c r="E29" t="n">
-        <v>968.7637269953004</v>
+        <v>363.2689562338321</v>
       </c>
       <c r="F29" t="n">
-        <v>968.7637269953004</v>
+        <v>363.2689562338321</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812576</v>
+        <v>363.2689562338321</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684085</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V29" t="n">
-        <v>1354.551979593545</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.551979593545</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X29" t="n">
-        <v>1354.551979593545</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y29" t="n">
-        <v>1354.551979593545</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F30" t="n">
         <v>32.45932575975218</v>
@@ -6543,49 +6545,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="U30" t="n">
-        <v>1193.860611630581</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="V30" t="n">
-        <v>958.708503398838</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="W30" t="n">
-        <v>704.4711466706365</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X30" t="n">
-        <v>496.6196464651036</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y30" t="n">
-        <v>288.8593477001497</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="C31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="D31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="E31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="F31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="X31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.82943156598947</v>
+        <v>1518.597632871174</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.826956011797</v>
+        <v>498.12512293075</v>
       </c>
       <c r="C32" t="n">
-        <v>863.8644390713857</v>
+        <v>498.12512293075</v>
       </c>
       <c r="D32" t="n">
-        <v>863.8644390713857</v>
+        <v>498.12512293075</v>
       </c>
       <c r="E32" t="n">
-        <v>863.8644390713857</v>
+        <v>498.12512293075</v>
       </c>
       <c r="F32" t="n">
-        <v>454.024467357343</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>44.18449564330024</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6725,25 +6727,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>871.5908811918299</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>871.5908811918299</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>498.12512293075</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011797</v>
+        <v>498.12512293075</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6780,13 +6782,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609043</v>
@@ -6801,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
-        <v>186.2082584834978</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>186.2082584834978</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U35" t="n">
-        <v>948.8168854676546</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V35" t="n">
-        <v>948.8168854676546</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="X35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="Y35" t="n">
-        <v>596.0482301975405</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>622.9779260119865</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
@@ -7023,16 +7025,16 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1461.042418730743</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1461.042418730743</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1461.042418730743</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755866</v>
+        <v>1461.042418730743</v>
       </c>
       <c r="W36" t="n">
-        <v>1387.814179755866</v>
+        <v>1206.805062002541</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.635721271956</v>
+        <v>998.9535617970084</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>791.1932630320546</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y37" t="n">
         <v>32.45932575975218</v>
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>591.0778725088204</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="C38" t="n">
-        <v>222.1153555684087</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941454</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>922.1407598523911</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>591.0778725088204</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>591.0778725088204</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X38" t="n">
-        <v>591.0778725088204</v>
+        <v>1483.095781083885</v>
       </c>
       <c r="Y38" t="n">
-        <v>591.0778725088204</v>
+        <v>1483.095781083885</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>957.7415918977861</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C39" t="n">
-        <v>783.2885626166591</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D39" t="n">
-        <v>634.3541529554078</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E39" t="n">
-        <v>475.1166979499523</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F39" t="n">
-        <v>328.5821399768373</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>190.1697667360075</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1619.010395143828</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1619.010395143828</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1619.010395143828</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1619.010395143828</v>
       </c>
       <c r="V39" t="n">
-        <v>1541.568727888341</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.568727888341</v>
+        <v>1383.858286912085</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.717227682808</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y39" t="n">
-        <v>1125.956928917854</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="40">
@@ -7357,16 +7359,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758254</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
         <v>32.45932575975218</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975218</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942227</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="V41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="W41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="X41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="Y41" t="n">
-        <v>759.6875413069145</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.3490175189913</v>
+        <v>502.3813226752454</v>
       </c>
       <c r="C42" t="n">
-        <v>354.8959882378643</v>
+        <v>327.9282933941184</v>
       </c>
       <c r="D42" t="n">
-        <v>205.9615785766131</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E42" t="n">
-        <v>205.9615785766131</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F42" t="n">
-        <v>59.42702060349805</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>59.42702060349805</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7488,25 +7490,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7546,22 +7548,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>42.19377926270744</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>214.3566541050397</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>214.3566541050397</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>52.86451470726678</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975218</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="C44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G44" t="n">
         <v>369.2677254726013</v>
@@ -7646,13 +7648,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941453</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1306.936151154032</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1053.099268086286</v>
+        <v>1462.939239800329</v>
       </c>
       <c r="V44" t="n">
-        <v>722.0363807427154</v>
+        <v>1131.876352456758</v>
       </c>
       <c r="W44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="X44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
       <c r="Y44" t="n">
-        <v>369.2677254726013</v>
+        <v>779.107697186644</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>730.4321178331462</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7731,46 +7733,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>256.6067387278473</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1568.496610551902</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1568.496610551902</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1568.496610551902</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1568.496610551902</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.568727888341</v>
+        <v>1568.496610551902</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.568727888341</v>
+        <v>1314.259253823701</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>1106.407753618168</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>898.6474548532142</v>
       </c>
     </row>
     <row r="46">
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452004</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479951</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942451</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M18" t="n">
-        <v>103.505681799068</v>
+        <v>375.205539958231</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
-        <v>224.2923308271896</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831324</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1250211658772</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O30" t="n">
-        <v>180.1562595611509</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>203.2271928126415</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026376</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>281.0382923213828</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N42" t="n">
-        <v>270.4206501018625</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>89.94082829865957</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>247.31430480046</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>252.8670930324759</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>289.6031381758622</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23312,13 +23314,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.25227630748134</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23349,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>127.3716462942602</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>64.40170098194004</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>252.8670930324761</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23586,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>61.48259114134687</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>31.59930865325657</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228692</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>252.8670930324761</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>70.41439893299201</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.68245780747912</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>180.3074206884475</v>
       </c>
     </row>
     <row r="19">
@@ -23908,10 +23910,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>122.3846868237668</v>
       </c>
       <c r="J19" t="n">
-        <v>62.08409257158718</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>146.0798465823959</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24017,7 +24019,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>278.6148488808453</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>137.643987862082</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>172.096640337115</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,10 +24147,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>1.834535155252155</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>262.2939515236558</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>56.79311626624468</v>
       </c>
       <c r="V23" t="n">
-        <v>277.1046868984059</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>69.6362714258232</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>197.4265213446724</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24460,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24494,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>57.05296305297676</v>
+        <v>216.0952451381425</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24531,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>137.643987862082</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>68.98954159319909</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.91723044926633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6390682700375</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>193.6982510569514</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24734,10 +24736,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3206073970796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.40566091718952</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>71.55960542206329</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7502647990355</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>126.1137933559315</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>351.6084785393259</v>
       </c>
       <c r="G32" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>321.832397531008</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24965,25 +24967,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,10 +25013,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>180.3074206884475</v>
       </c>
     </row>
     <row r="34">
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2637875035881</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25132,10 +25134,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25172,7 +25174,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>35.54802611406177</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>288.3965014193244</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>5.522582127118142</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -25290,13 +25292,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>183.8163113044062</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25408,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>86.44632198658655</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>231.2592988437823</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>31.5993086532566</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.66725058293217</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25527,7 +25529,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25597,10 +25599,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.4339941236785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>194.6923193531288</v>
       </c>
       <c r="V41" t="n">
-        <v>253.3698940966997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>139.8351657545589</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25722,7 +25724,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>82.49260451730295</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25786,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7968536786435</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>127.3008210000413</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141476</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>20.50233130349594</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>92.87173653166087</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25947,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25959,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.65860383692591</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>31.59930865325657</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>536204.261158514</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>536204.2611585137</v>
+        <v>536204.2611585138</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>536204.2611585137</v>
+        <v>536204.2611585134</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>536204.2611585135</v>
+        <v>536204.2611585138</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>536204.2611585136</v>
+        <v>536204.2611585133</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>536204.2611585133</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536204.2611585134</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536204.2611585136</v>
+        <v>536204.2611585134</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>536204.2611585136</v>
+        <v>536204.2611585137</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26326,7 +26328,7 @@
         <v>245673.2316242975</v>
       </c>
       <c r="G2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242977</v>
       </c>
       <c r="H2" t="n">
         <v>245673.2316242976</v>
@@ -26344,7 +26346,7 @@
         <v>245673.2316242976</v>
       </c>
       <c r="M2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="N2" t="n">
         <v>245673.2316242975</v>
@@ -26353,7 +26355,7 @@
         <v>245673.2316242975</v>
       </c>
       <c r="P2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="H4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
         <v>34482.31175973668</v>
@@ -26448,7 +26450,7 @@
         <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
         <v>34482.31175973668</v>
@@ -26457,7 +26459,7 @@
         <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26481,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30452.94295793644</v>
+        <v>30452.94295793639</v>
       </c>
       <c r="C6" t="n">
-        <v>111222.3744894842</v>
+        <v>111222.3744894843</v>
       </c>
       <c r="D6" t="n">
         <v>111222.3744894842</v>
       </c>
       <c r="E6" t="n">
-        <v>16386.39682555656</v>
+        <v>16386.39682555648</v>
       </c>
       <c r="F6" t="n">
-        <v>183326.5669508033</v>
+        <v>183326.5669508032</v>
       </c>
       <c r="G6" t="n">
         <v>183326.5669508034</v>
@@ -26546,10 +26548,10 @@
         <v>120266.624351697</v>
       </c>
       <c r="K6" t="n">
+        <v>183326.5669508033</v>
+      </c>
+      <c r="L6" t="n">
         <v>183326.5669508034</v>
-      </c>
-      <c r="L6" t="n">
-        <v>183326.5669508033</v>
       </c>
       <c r="M6" t="n">
         <v>142275.8690883554</v>
@@ -26558,7 +26560,7 @@
         <v>183326.5669508033</v>
       </c>
       <c r="O6" t="n">
-        <v>183326.5669508033</v>
+        <v>183326.5669508032</v>
       </c>
       <c r="P6" t="n">
         <v>183326.5669508033</v>
@@ -26799,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>310.9045062803826</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>330.6977166954727</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8991840566981</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>96.31796450195137</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>185.1569885989568</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>27.0186230325705</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.091421688202573</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27758,7 +27760,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,10 +27861,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>206.8877105131121</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>88.10426277371752</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>193.0113598889438</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318298</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144177</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35726,25 +35728,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908066</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>41.25328128569732</v>
+        <v>312.9531394448603</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36215,7 +36217,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>154.1911319698549</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
@@ -36452,10 +36454,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7791716322998</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,16 +36922,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O30" t="n">
-        <v>112.5702101577123</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>153.8813432790641</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37391,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
         <v>53.63987744680304</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>218.7858918080121</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37640,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N42" t="n">
-        <v>221.0748005682852</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37879,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38023,7 +38025,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094069</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38099,7 +38101,7 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>19.83962944132484</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38108,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>179.7282553970214</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
